--- a/Jogos_do_Dia/2023-02-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="164">
   <si>
     <t>League</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Australia A-League</t>
   </si>
   <si>
+    <t>Japan J1 League</t>
+  </si>
+  <si>
     <t>Serbia SuperLiga</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Republic of Ireland Premier Division</t>
+  </si>
+  <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -340,6 +349,9 @@
     <t>Resistencia</t>
   </si>
   <si>
+    <t>Unión Española</t>
+  </si>
+  <si>
     <t>Gimnasia La Plata</t>
   </si>
   <si>
@@ -482,6 +494,9 @@
   </si>
   <si>
     <t>Guaraní</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
   </si>
   <si>
     <t>Instituto</t>
@@ -852,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>1.91</v>
@@ -1077,19 +1092,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F3">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="G3">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="H3">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="I3">
         <v>1.04</v>
@@ -1104,10 +1119,10 @@
         <v>3.75</v>
       </c>
       <c r="M3">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="N3">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
         <v>1.34</v>
@@ -1171,8 +1186,8 @@
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4">
-        <v>8810</v>
+      <c r="A4" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>44974.29166666666</v>
@@ -1181,19 +1196,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F4">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="H4">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1.01</v>
@@ -1208,10 +1223,10 @@
         <v>4.2</v>
       </c>
       <c r="M4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
         <v>1.33</v>
@@ -1276,7 +1291,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>44974.5</v>
@@ -1285,19 +1300,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H5">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1312,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1380,7 +1395,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>44974.5</v>
@@ -1389,19 +1404,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I6">
         <v>1.11</v>
@@ -1413,7 +1428,7 @@
         <v>1.57</v>
       </c>
       <c r="L6">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="M6">
         <v>2.76</v>
@@ -1467,24 +1482,24 @@
         <v>2.4</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>44974.52083333334</v>
@@ -1493,19 +1508,19 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F7">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="G7">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I7">
         <v>1.08</v>
@@ -1520,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="N7">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="O7">
         <v>1.44</v>
@@ -1588,7 +1603,7 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>44974.54166666666</v>
@@ -1597,10 +1612,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1692,7 +1707,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>44974.5625</v>
@@ -1701,19 +1716,19 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F9">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="G9">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="H9">
-        <v>4.9</v>
+        <v>4.52</v>
       </c>
       <c r="I9">
         <v>1.08</v>
@@ -1728,10 +1743,10 @@
         <v>2.9</v>
       </c>
       <c r="M9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O9">
         <v>1.46</v>
@@ -1770,33 +1785,33 @@
         <v>3.78</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF9">
         <v>1.98</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>44974.58333333334</v>
@@ -1805,19 +1820,19 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>4.2</v>
+        <v>3.94</v>
       </c>
       <c r="I10">
         <v>1.07</v>
@@ -1832,10 +1847,10 @@
         <v>3.1</v>
       </c>
       <c r="M10">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O10">
         <v>1.42</v>
@@ -1883,24 +1898,24 @@
         <v>3.48</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>44974.58333333334</v>
@@ -1909,19 +1924,19 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="I11">
         <v>1.08</v>
@@ -1936,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="N11">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O11">
         <v>1.44</v>
@@ -2004,7 +2019,7 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>44974.58333333334</v>
@@ -2013,10 +2028,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F12">
         <v>3.25</v>
@@ -2108,7 +2123,7 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>44974.60416666666</v>
@@ -2117,19 +2132,19 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F13">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="G13">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="H13">
-        <v>3.85</v>
+        <v>3.38</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2144,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O13">
         <v>1.33</v>
@@ -2212,7 +2227,7 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>44974.60416666666</v>
@@ -2221,16 +2236,16 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="G14">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="H14">
         <v>2.4</v>
@@ -2248,10 +2263,10 @@
         <v>3.9</v>
       </c>
       <c r="M14">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
         <v>1.33</v>
@@ -2316,7 +2331,7 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>44974.625</v>
@@ -2325,19 +2340,19 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F15">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="G15">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="H15">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -2352,10 +2367,10 @@
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="N15">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O15">
         <v>1.44</v>
@@ -2420,7 +2435,7 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>44974.625</v>
@@ -2429,19 +2444,19 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F16">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="G16">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H16">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="I16">
         <v>1.03</v>
@@ -2456,10 +2471,10 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="O16">
         <v>1.3</v>
@@ -2498,16 +2513,16 @@
         <v>3.6</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE16">
         <v>1.28</v>
@@ -2524,7 +2539,7 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>44974.625</v>
@@ -2533,19 +2548,19 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G17">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I17">
         <v>1.08</v>
@@ -2557,7 +2572,7 @@
         <v>1.49</v>
       </c>
       <c r="L17">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M17">
         <v>2.44</v>
@@ -2611,24 +2626,24 @@
         <v>1.64</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE17">
         <v>1.85</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>44974.625</v>
@@ -2637,19 +2652,19 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F18">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="G18">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H18">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -2664,10 +2679,10 @@
         <v>2.95</v>
       </c>
       <c r="M18">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O18">
         <v>1.46</v>
@@ -2718,21 +2733,21 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG18">
         <v>1.85</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>44974.64583333334</v>
@@ -2741,58 +2756,58 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="G19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H19">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N19">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R19">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V19">
         <v>1.4</v>
@@ -2810,33 +2825,33 @@
         <v>3.07</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>44974.64583333334</v>
@@ -2845,58 +2860,58 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F20">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G20">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="H20">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N20">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q20">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R20">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V20">
         <v>2.6</v>
@@ -2914,33 +2929,33 @@
         <v>3.13</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>44974.64583333334</v>
@@ -2949,43 +2964,43 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F21">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="G21">
         <v>3.9</v>
       </c>
       <c r="H21">
-        <v>3.36</v>
+        <v>4.6</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M21">
         <v>1.6</v>
       </c>
       <c r="N21">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
         <v>1.62</v>
@@ -2994,13 +3009,13 @@
         <v>2.2</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V21">
         <v>2.2</v>
@@ -3018,33 +3033,33 @@
         <v>3.49</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>44974.66666666666</v>
@@ -3053,19 +3068,19 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F22">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G22">
-        <v>3.45</v>
+        <v>3.66</v>
       </c>
       <c r="H22">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="I22">
         <v>1.04</v>
@@ -3080,10 +3095,10 @@
         <v>3.89</v>
       </c>
       <c r="M22">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N22">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="O22">
         <v>1.36</v>
@@ -3148,7 +3163,7 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2">
         <v>44974.66666666666</v>
@@ -3157,10 +3172,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23">
         <v>3.94</v>
@@ -3226,33 +3241,33 @@
         <v>3.79</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>44974.66666666666</v>
@@ -3261,10 +3276,10 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F24">
         <v>1.56</v>
@@ -3330,33 +3345,33 @@
         <v>2.7</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>44974.66666666666</v>
@@ -3365,10 +3380,10 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F25">
         <v>3.11</v>
@@ -3434,33 +3449,33 @@
         <v>2.73</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>44974.66666666666</v>
@@ -3469,10 +3484,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F26">
         <v>2.09</v>
@@ -3538,33 +3553,33 @@
         <v>3.37</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
         <v>44974.66666666666</v>
@@ -3573,10 +3588,10 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F27">
         <v>2.06</v>
@@ -3642,33 +3657,33 @@
         <v>2.6</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>44974.66666666666</v>
@@ -3677,10 +3692,10 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F28">
         <v>3.38</v>
@@ -3746,33 +3761,33 @@
         <v>2.58</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>44974.66666666666</v>
@@ -3781,10 +3796,10 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>2.03</v>
@@ -3850,33 +3865,33 @@
         <v>3.08</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>44974.67708333334</v>
@@ -3885,19 +3900,19 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F30">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="G30">
-        <v>3.64</v>
+        <v>3.35</v>
       </c>
       <c r="H30">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3924,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3954,13 +3969,13 @@
         <v>3.49</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3969,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -3980,7 +3995,7 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
         <v>44974.6875</v>
@@ -3989,19 +4004,19 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="G31">
+        <v>3.42</v>
+      </c>
+      <c r="H31">
         <v>3.3</v>
-      </c>
-      <c r="H31">
-        <v>3.45</v>
       </c>
       <c r="I31">
         <v>1.06</v>
@@ -4016,10 +4031,10 @@
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="N31">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="O31">
         <v>1.4</v>
@@ -4067,24 +4082,24 @@
         <v>2.91</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2">
         <v>44974.6875</v>
@@ -4093,19 +4108,19 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F32">
-        <v>2.57</v>
+        <v>2.81</v>
       </c>
       <c r="G32">
-        <v>3.48</v>
+        <v>3.76</v>
       </c>
       <c r="H32">
-        <v>2.33</v>
+        <v>2.54</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4120,10 +4135,10 @@
         <v>4.33</v>
       </c>
       <c r="M32">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="N32">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
         <v>1.33</v>
@@ -4188,7 +4203,7 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2">
         <v>44974.6875</v>
@@ -4197,19 +4212,19 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F33">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="G33">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="H33">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="I33">
         <v>1.08</v>
@@ -4224,10 +4239,10 @@
         <v>2.75</v>
       </c>
       <c r="M33">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="O33">
         <v>1.44</v>
@@ -4292,7 +4307,7 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2">
         <v>44974.69791666666</v>
@@ -4301,19 +4316,19 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F34">
-        <v>3.5</v>
+        <v>4.08</v>
       </c>
       <c r="G34">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="I34">
         <v>1.02</v>
@@ -4328,10 +4343,10 @@
         <v>4.33</v>
       </c>
       <c r="M34">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
         <v>1.29</v>
@@ -4396,7 +4411,7 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>44974.69791666666</v>
@@ -4405,19 +4420,19 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F35">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <v>4.6</v>
       </c>
       <c r="H35">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="I35">
         <v>1.02</v>
@@ -4432,10 +4447,10 @@
         <v>4.5</v>
       </c>
       <c r="M35">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="N35">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
         <v>1.3</v>
@@ -4499,8 +4514,8 @@
       </c>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36">
-        <v>8741</v>
+      <c r="A36" t="s">
+        <v>55</v>
       </c>
       <c r="B36" s="2">
         <v>44974.69791666666</v>
@@ -4509,19 +4524,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F36">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G36">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H36">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="I36">
         <v>1.05</v>
@@ -4536,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O36">
         <v>1.44</v>
@@ -4603,8 +4618,8 @@
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37">
-        <v>8741</v>
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="2">
         <v>44974.69791666666</v>
@@ -4613,19 +4628,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F37">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="G37">
-        <v>4.75</v>
+        <v>5.05</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I37">
         <v>1.02</v>
@@ -4640,10 +4655,10 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
         <v>1.3</v>
@@ -4682,33 +4697,33 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38">
-        <v>8741</v>
+      <c r="A38" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>44974.69791666666</v>
@@ -4717,16 +4732,16 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F38">
         <v>1.53</v>
       </c>
       <c r="G38">
-        <v>3.7</v>
+        <v>4.32</v>
       </c>
       <c r="H38">
         <v>5.8</v>
@@ -4744,10 +4759,10 @@
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N38">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
         <v>1.4</v>
@@ -4786,33 +4801,33 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39">
-        <v>8741</v>
+      <c r="A39" t="s">
+        <v>55</v>
       </c>
       <c r="B39" s="2">
         <v>44974.69791666666</v>
@@ -4821,19 +4836,19 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F39">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="H39">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="I39">
         <v>1.07</v>
@@ -4851,7 +4866,7 @@
         <v>2.1</v>
       </c>
       <c r="N39">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O39">
         <v>1.5</v>
@@ -4890,33 +4905,33 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2">
         <v>44974.69791666666</v>
@@ -4925,19 +4940,19 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4952,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -5020,7 +5035,7 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
         <v>44974.70833333334</v>
@@ -5029,19 +5044,19 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F41">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="G41">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="H41">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="I41">
         <v>1.03</v>
@@ -5056,10 +5071,10 @@
         <v>3.8</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N41">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="O41">
         <v>1.36</v>
@@ -5124,7 +5139,7 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
         <v>44974.70833333334</v>
@@ -5133,16 +5148,16 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F42">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G42">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="H42">
         <v>3.3</v>
@@ -5154,10 +5169,10 @@
         <v>6</v>
       </c>
       <c r="K42">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L42">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="M42">
         <v>2.62</v>
@@ -5228,7 +5243,7 @@
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2">
         <v>44974.70833333334</v>
@@ -5237,19 +5252,19 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F43">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G43">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H43">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="I43">
         <v>1.08</v>
@@ -5264,10 +5279,10 @@
         <v>2.9</v>
       </c>
       <c r="M43">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="O43">
         <v>1.5</v>
@@ -5332,7 +5347,7 @@
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2">
         <v>44974.70833333334</v>
@@ -5341,19 +5356,19 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F44">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G44">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="H44">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -5368,10 +5383,10 @@
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="N44">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O44">
         <v>1.4</v>
@@ -5436,7 +5451,7 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2">
         <v>44974.71875</v>
@@ -5445,19 +5460,19 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F45">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="G45">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="H45">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="I45">
         <v>1.05</v>
@@ -5472,10 +5487,10 @@
         <v>3.25</v>
       </c>
       <c r="M45">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="N45">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="O45">
         <v>1.41</v>
@@ -5523,7 +5538,7 @@
         <v>3.06</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE45">
         <v>1.23</v>
@@ -5540,7 +5555,7 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2">
         <v>44974.75</v>
@@ -5549,19 +5564,19 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="G46">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H46">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5576,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="N46">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -5644,210 +5659,210 @@
     </row>
     <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2">
         <v>44974.75</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F47">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="G47">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="H47">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="I47">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>11.7</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="L47">
-        <v>2.4</v>
+        <v>3.41</v>
       </c>
       <c r="M47">
-        <v>2.57</v>
+        <v>1.97</v>
       </c>
       <c r="N47">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="O47">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P47">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="Q47">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="R47">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="S47">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="T47">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="U47">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="Y47">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="Z47">
-        <v>3.09</v>
+        <v>3.27</v>
       </c>
       <c r="AA47">
-        <v>2.28</v>
+        <v>1.82</v>
       </c>
       <c r="AB47">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC47">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="AD47">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AE47">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AF47">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AG47">
-        <v>2.19</v>
+        <v>2.39</v>
       </c>
       <c r="AH47">
-        <v>2.93</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2">
-        <v>44974.85416666666</v>
+        <v>44974.75</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2.67</v>
       </c>
       <c r="G48">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="H48">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M48">
-        <v>1.8</v>
+        <v>2.57</v>
       </c>
       <c r="N48">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>3</v>
       </c>
       <c r="X48">
-        <v>0.9</v>
+        <v>1.83</v>
       </c>
       <c r="Y48">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="Z48">
-        <v>1.8</v>
+        <v>3.09</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -5855,103 +5870,207 @@
         <v>62</v>
       </c>
       <c r="B49" s="2">
+        <v>44974.85416666666</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49">
+        <v>4.1</v>
+      </c>
+      <c r="G49">
+        <v>3.45</v>
+      </c>
+      <c r="H49">
+        <v>1.83</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1.88</v>
+      </c>
+      <c r="N49">
+        <v>1.86</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0.5</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>0.8</v>
+      </c>
+      <c r="Y49">
+        <v>0.9</v>
+      </c>
+      <c r="Z49">
+        <v>1.7</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="2">
         <v>44974.875</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49">
-        <v>2.25</v>
-      </c>
-      <c r="G49">
-        <v>2.8</v>
-      </c>
-      <c r="H49">
-        <v>3.4</v>
-      </c>
-      <c r="I49">
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50">
+        <v>2.75</v>
+      </c>
+      <c r="G50">
+        <v>2.95</v>
+      </c>
+      <c r="H50">
+        <v>2.65</v>
+      </c>
+      <c r="I50">
         <v>1.12</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <v>5.75</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <v>1.5</v>
       </c>
-      <c r="L49">
-        <v>2.5</v>
-      </c>
-      <c r="M49">
+      <c r="L50">
+        <v>2.4</v>
+      </c>
+      <c r="M50">
         <v>2.47</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <v>1.48</v>
       </c>
-      <c r="O49">
+      <c r="O50">
         <v>1.52</v>
       </c>
-      <c r="P49">
+      <c r="P50">
         <v>2.35</v>
       </c>
-      <c r="Q49">
+      <c r="Q50">
         <v>2.1</v>
       </c>
-      <c r="R49">
+      <c r="R50">
         <v>1.65</v>
       </c>
-      <c r="S49">
+      <c r="S50">
         <v>1.31</v>
       </c>
-      <c r="T49">
+      <c r="T50">
         <v>1.4</v>
       </c>
-      <c r="U49">
+      <c r="U50">
         <v>1.53</v>
       </c>
-      <c r="V49">
+      <c r="V50">
         <v>3</v>
       </c>
-      <c r="W49">
+      <c r="W50">
         <v>1</v>
       </c>
-      <c r="X49">
+      <c r="X50">
         <v>1.02</v>
       </c>
-      <c r="Y49">
+      <c r="Y50">
         <v>0.93</v>
       </c>
-      <c r="Z49">
+      <c r="Z50">
         <v>1.95</v>
       </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
+      <c r="AA50">
+        <v>2.1</v>
+      </c>
+      <c r="AB50">
+        <v>7.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.91</v>
+      </c>
+      <c r="AD50">
+        <v>1.29</v>
+      </c>
+      <c r="AE50">
+        <v>1.53</v>
+      </c>
+      <c r="AF50">
+        <v>1.94</v>
+      </c>
+      <c r="AG50">
+        <v>2.52</v>
+      </c>
+      <c r="AH50">
+        <v>3.42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1098,13 +1098,13 @@
         <v>116</v>
       </c>
       <c r="F3">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="I3">
         <v>1.04</v>
@@ -1119,10 +1119,10 @@
         <v>3.75</v>
       </c>
       <c r="M3">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="N3">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
         <v>1.34</v>
@@ -1146,10 +1146,10 @@
         <v>1.52</v>
       </c>
       <c r="V3">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="W3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="X3">
         <v>1.71</v>
@@ -1202,13 +1202,13 @@
         <v>117</v>
       </c>
       <c r="F4">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="G4">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I4">
         <v>1.01</v>
@@ -1223,10 +1223,10 @@
         <v>4.2</v>
       </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>1.33</v>
@@ -1306,13 +1306,13 @@
         <v>118</v>
       </c>
       <c r="F5">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="G5">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H5">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>119</v>
       </c>
       <c r="F6">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="G6">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H6">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="I6">
         <v>1.11</v>
@@ -1428,13 +1428,13 @@
         <v>1.57</v>
       </c>
       <c r="L6">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M6">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="N6">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O6">
         <v>1.61</v>
@@ -1514,13 +1514,13 @@
         <v>120</v>
       </c>
       <c r="F7">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="H7">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="I7">
         <v>1.08</v>
@@ -1535,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="O7">
         <v>1.44</v>
@@ -1743,10 +1743,10 @@
         <v>2.9</v>
       </c>
       <c r="M9">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
         <v>1.46</v>
@@ -1826,13 +1826,13 @@
         <v>123</v>
       </c>
       <c r="F10">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H10">
-        <v>3.94</v>
+        <v>4.55</v>
       </c>
       <c r="I10">
         <v>1.07</v>
@@ -1847,10 +1847,10 @@
         <v>3.1</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O10">
         <v>1.42</v>
@@ -1930,13 +1930,13 @@
         <v>124</v>
       </c>
       <c r="F11">
+        <v>3.14</v>
+      </c>
+      <c r="G11">
         <v>2.95</v>
       </c>
-      <c r="G11">
-        <v>3.1</v>
-      </c>
       <c r="H11">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I11">
         <v>1.08</v>
@@ -1951,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O11">
         <v>1.44</v>
@@ -2138,13 +2138,13 @@
         <v>126</v>
       </c>
       <c r="F13">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="G13">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="H13">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2242,13 +2242,13 @@
         <v>127</v>
       </c>
       <c r="F14">
-        <v>2.74</v>
+        <v>2.93</v>
       </c>
       <c r="G14">
-        <v>3.62</v>
+        <v>3.46</v>
       </c>
       <c r="H14">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I14">
         <v>1.04</v>
@@ -2346,13 +2346,13 @@
         <v>128</v>
       </c>
       <c r="F15">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="G15">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -2367,10 +2367,10 @@
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="N15">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="O15">
         <v>1.44</v>
@@ -2450,13 +2450,13 @@
         <v>129</v>
       </c>
       <c r="F16">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G16">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="H16">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="I16">
         <v>1.03</v>
@@ -2471,10 +2471,10 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="N16">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
         <v>1.3</v>
@@ -2554,13 +2554,13 @@
         <v>130</v>
       </c>
       <c r="F17">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="G17">
-        <v>3.18</v>
+        <v>2.97</v>
       </c>
       <c r="H17">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="I17">
         <v>1.08</v>
@@ -2569,16 +2569,16 @@
         <v>6.5</v>
       </c>
       <c r="K17">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M17">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="N17">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O17">
         <v>1.53</v>
@@ -2658,13 +2658,13 @@
         <v>131</v>
       </c>
       <c r="F18">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="G18">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="H18">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -2679,10 +2679,10 @@
         <v>2.95</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N18">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O18">
         <v>1.46</v>
@@ -2721,16 +2721,16 @@
         <v>3.35</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE18">
         <v>1.29</v>
@@ -2762,13 +2762,13 @@
         <v>132</v>
       </c>
       <c r="F19">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="G19">
         <v>3.5</v>
       </c>
       <c r="H19">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -2783,10 +2783,10 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O19">
         <v>1.3</v>
@@ -2825,13 +2825,13 @@
         <v>3.07</v>
       </c>
       <c r="AA19">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AB19">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AC19">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AD19">
         <v>1.14</v>
@@ -2866,13 +2866,13 @@
         <v>133</v>
       </c>
       <c r="F20">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G20">
-        <v>3.85</v>
+        <v>3.71</v>
       </c>
       <c r="H20">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I20">
         <v>1.04</v>
@@ -2887,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="M20">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="N20">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="O20">
         <v>1.3</v>
@@ -2929,13 +2929,13 @@
         <v>3.13</v>
       </c>
       <c r="AA20">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AB20">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="AC20">
-        <v>3.56</v>
+        <v>3.78</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>1.32</v>
       </c>
       <c r="AF20">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AG20">
         <v>2.05</v>
@@ -2970,13 +2970,13 @@
         <v>134</v>
       </c>
       <c r="F21">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="G21">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
-        <v>4.6</v>
+        <v>3.17</v>
       </c>
       <c r="I21">
         <v>1.03</v>
@@ -2991,10 +2991,10 @@
         <v>4.33</v>
       </c>
       <c r="M21">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
         <v>1.33</v>
@@ -3033,13 +3033,13 @@
         <v>3.49</v>
       </c>
       <c r="AA21">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AB21">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AC21">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AD21">
         <v>1.17</v>
@@ -3048,7 +3048,7 @@
         <v>1.32</v>
       </c>
       <c r="AF21">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AG21">
         <v>1.99</v>
@@ -3074,13 +3074,13 @@
         <v>135</v>
       </c>
       <c r="F22">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="G22">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="H22">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="I22">
         <v>1.04</v>
@@ -3095,10 +3095,10 @@
         <v>3.89</v>
       </c>
       <c r="M22">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N22">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O22">
         <v>1.36</v>
@@ -3354,7 +3354,7 @@
         <v>3.94</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE24">
         <v>1.37</v>
@@ -3906,37 +3906,37 @@
         <v>143</v>
       </c>
       <c r="F30">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="G30">
-        <v>3.35</v>
+        <v>3.66</v>
       </c>
       <c r="H30">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="N30">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -3945,13 +3945,13 @@
         <v>2.1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V30">
         <v>1.5</v>
@@ -3969,19 +3969,19 @@
         <v>3.49</v>
       </c>
       <c r="AA30">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AB30">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AC30">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF30">
         <v>1.67</v>
@@ -3990,7 +3990,7 @@
         <v>2.05</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -4010,13 +4010,13 @@
         <v>144</v>
       </c>
       <c r="F31">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="G31">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="H31">
-        <v>3.3</v>
+        <v>3.68</v>
       </c>
       <c r="I31">
         <v>1.06</v>
@@ -4031,10 +4031,10 @@
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="N31">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="O31">
         <v>1.4</v>
@@ -4114,13 +4114,13 @@
         <v>145</v>
       </c>
       <c r="F32">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="G32">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
       <c r="H32">
-        <v>2.54</v>
+        <v>2.31</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4135,10 +4135,10 @@
         <v>4.33</v>
       </c>
       <c r="M32">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O32">
         <v>1.33</v>
@@ -4218,13 +4218,13 @@
         <v>146</v>
       </c>
       <c r="F33">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="G33">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="H33">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="I33">
         <v>1.08</v>
@@ -4322,13 +4322,13 @@
         <v>147</v>
       </c>
       <c r="F34">
-        <v>4.08</v>
+        <v>3.34</v>
       </c>
       <c r="G34">
-        <v>3.96</v>
+        <v>3.43</v>
       </c>
       <c r="H34">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="I34">
         <v>1.02</v>
@@ -4426,13 +4426,13 @@
         <v>148</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>4.37</v>
       </c>
       <c r="G35">
-        <v>4.6</v>
+        <v>4.22</v>
       </c>
       <c r="H35">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="I35">
         <v>1.02</v>
@@ -4530,13 +4530,13 @@
         <v>149</v>
       </c>
       <c r="F36">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="G36">
-        <v>3.2</v>
+        <v>3.52</v>
       </c>
       <c r="H36">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="I36">
         <v>1.05</v>
@@ -4551,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N36">
         <v>1.87</v>
@@ -4655,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N37">
         <v>2.15</v>
@@ -4759,10 +4759,10 @@
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
         <v>1.4</v>
@@ -4863,10 +4863,10 @@
         <v>2.8</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N39">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O39">
         <v>1.5</v>
@@ -4949,49 +4949,49 @@
         <v>2.1</v>
       </c>
       <c r="G40">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="N40">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V40">
         <v>2.09</v>
@@ -5018,16 +5018,16 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -5050,13 +5050,13 @@
         <v>154</v>
       </c>
       <c r="F41">
-        <v>4.64</v>
+        <v>4.29</v>
       </c>
       <c r="G41">
-        <v>3.96</v>
+        <v>3.85</v>
       </c>
       <c r="H41">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="I41">
         <v>1.03</v>
@@ -5071,10 +5071,10 @@
         <v>3.8</v>
       </c>
       <c r="M41">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N41">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="O41">
         <v>1.36</v>
@@ -5154,13 +5154,13 @@
         <v>155</v>
       </c>
       <c r="F42">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="G42">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="H42">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="I42">
         <v>1.12</v>
@@ -5169,16 +5169,16 @@
         <v>6</v>
       </c>
       <c r="K42">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="L42">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="M42">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="N42">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="O42">
         <v>1.68</v>
@@ -5258,13 +5258,13 @@
         <v>156</v>
       </c>
       <c r="F43">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="H43">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="I43">
         <v>1.08</v>
@@ -5362,13 +5362,13 @@
         <v>157</v>
       </c>
       <c r="F44">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="G44">
-        <v>3.86</v>
+        <v>3.61</v>
       </c>
       <c r="H44">
-        <v>4.6</v>
+        <v>4.51</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -5383,10 +5383,10 @@
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N44">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O44">
         <v>1.4</v>
@@ -5466,13 +5466,13 @@
         <v>158</v>
       </c>
       <c r="F45">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="G45">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="H45">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="I45">
         <v>1.05</v>
@@ -5490,7 +5490,7 @@
         <v>2.2</v>
       </c>
       <c r="N45">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O45">
         <v>1.41</v>
@@ -5570,13 +5570,13 @@
         <v>159</v>
       </c>
       <c r="F46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H46">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="N46">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>160</v>
       </c>
       <c r="F47">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="G47">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="H47">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="I47">
         <v>1.03</v>
@@ -5695,10 +5695,10 @@
         <v>3.41</v>
       </c>
       <c r="M47">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="N47">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
         <v>1.4</v>
@@ -5882,31 +5882,31 @@
         <v>162</v>
       </c>
       <c r="F49">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="H49">
+        <v>1.84</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>1.83</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>1.88</v>
-      </c>
       <c r="N49">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -5989,10 +5989,10 @@
         <v>2.75</v>
       </c>
       <c r="G50">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="H50">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="I50">
         <v>1.12</v>
@@ -6007,10 +6007,10 @@
         <v>2.4</v>
       </c>
       <c r="M50">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="N50">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="O50">
         <v>1.52</v>
